--- a/picarro/StandardPrecision.xlsx
+++ b/picarro/StandardPrecision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/kendalynn_morris_pnnl_gov/Documents/Documents/methane/grossMethane/picarro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="11_F25DC773A252ABDACC10487D89DB44485ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E213CFE1-79E5-4778-A452-6DBDFDA56318}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="11_F25DC773A252ABDACC10487D89DB44485ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB5B5F39-EABD-4362-8662-B4D49D932A42}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,8 +121,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.000000"/>
-    <numFmt numFmtId="173" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -188,8 +188,8 @@
     <xf numFmtId="22" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/picarro/StandardPrecision.xlsx
+++ b/picarro/StandardPrecision.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/kendalynn_morris_pnnl_gov/Documents/Documents/methane/grossMethane/picarro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="11_F25DC773A252ABDACC10487D89DB44485ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB5B5F39-EABD-4362-8662-B4D49D932A42}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{DFAB8F9A-B442-405F-B65F-CF2028FCEAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,13 +107,13 @@
     <t>sd 13/(sd 12C+13C)</t>
   </si>
   <si>
-    <t>relative uncertaintiy of m</t>
-  </si>
-  <si>
-    <t>relative uncertaintiy of n</t>
-  </si>
-  <si>
-    <t>relative uncertainty of AP</t>
+    <t>percent relative uncertaintiy of m</t>
+  </si>
+  <si>
+    <t>percent relative uncertaintiy of n</t>
+  </si>
+  <si>
+    <t>percent relative uncertainty of AP</t>
   </si>
 </sst>
 </file>
@@ -472,28 +472,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -540,7 +540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -587,7 +587,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -634,7 +634,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -681,7 +681,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -728,7 +728,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -775,7 +775,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -822,7 +822,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -869,7 +869,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -916,7 +916,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
       <c r="H10">
         <f>_xlfn.STDEV.P(H2:H9)</f>
@@ -927,7 +927,7 @@
         <v>2.4026027553467947E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
       <c r="H11">
         <f>AVERAGE(H2:H9)</f>
@@ -946,7 +946,7 @@
         <v>410.70132570030682</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -993,7 +993,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
@@ -1181,10 +1181,10 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="H17">
-        <f t="shared" ref="H17" si="0">_xlfn.STDEV.P(H12:H16)</f>
+        <f>_xlfn.STDEV.P(H12:H16)</f>
         <v>0.49255472792370941</v>
       </c>
       <c r="I17" s="10">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
       <c r="H18">
         <f>AVERAGE(H12:H16)</f>
@@ -1216,7 +1216,7 @@
         <v>5.4524049411207676</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
@@ -1404,13 +1404,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>17</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>17</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>17</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>17</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I33" t="s">
         <v>19</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="9:13" x14ac:dyDescent="0.3">
       <c r="J34">
         <f>SQRT((H17^2)+(J17^2))</f>
         <v>0.49257973973763819</v>
@@ -1622,7 +1622,7 @@
         <v>8.724859007893538E-3</v>
       </c>
     </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I37" t="s">
         <v>23</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>0.58844861045589103</v>
       </c>
     </row>
-    <row r="38" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I38" t="s">
         <v>24</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>0.54524049411207676</v>
       </c>
     </row>
-    <row r="39" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I39" t="s">
         <v>25</v>
       </c>
